--- a/Alohandes/data/Modelos/Esquema BD.xlsx
+++ b/Alohandes/data/Modelos/Esquema BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás\Desktop\2020\Sistrans\iteraciones\st-parranderos-jdo-est\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE\HotelManagement\Alohandes\data\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E759583-DB93-455A-9719-B5BF23374AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC15C201-A4DC-45D7-848B-FA87012C24EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EEF67A9-6324-49A2-AA74-E29D07B2AB68}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Relacional" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
   <si>
     <t>NN</t>
   </si>
@@ -477,6 +478,60 @@
   </si>
   <si>
     <t>MENAJE</t>
+  </si>
+  <si>
+    <t>HABILITADA</t>
+  </si>
+  <si>
+    <t>FECHA_REALIZACION</t>
+  </si>
+  <si>
+    <t>COLECTIVA</t>
+  </si>
+  <si>
+    <t>RESERVA_COLECTIVA</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>OFERTA.ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NN, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLIENTE.ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>RESERVA_COLECTIVA.ID</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -971,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE441C97-7F2D-4289-AB1E-C697E71C467D}">
-  <dimension ref="B2:CG10"/>
+  <dimension ref="B2:CN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="BT9" sqref="BT9"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="CK7" sqref="CK7:CN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1010,44 +1065,51 @@
     <col min="40" max="40" width="13.77734375" customWidth="1"/>
     <col min="41" max="41" width="14" customWidth="1"/>
     <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.88671875" customWidth="1"/>
     <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.5546875" customWidth="1"/>
-    <col min="46" max="46" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.44140625" customWidth="1"/>
-    <col min="55" max="55" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.33203125" customWidth="1"/>
-    <col min="76" max="76" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="26" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.88671875" customWidth="1"/>
-    <col min="85" max="85" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.5546875" customWidth="1"/>
+    <col min="46" max="46" width="14.5546875" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" customWidth="1"/>
+    <col min="56" max="56" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.33203125" customWidth="1"/>
+    <col min="77" max="77" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="26" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.5546875" customWidth="1"/>
+    <col min="86" max="86" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.88671875" customWidth="1"/>
+    <col min="89" max="89" width="8" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="93" max="95" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:85" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
@@ -1069,31 +1131,33 @@
       <c r="AP2" s="10"/>
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
-      <c r="AX2" s="11" t="s">
+      <c r="AS2" s="10"/>
+      <c r="AY2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AY2" s="11"/>
       <c r="AZ2" s="11"/>
       <c r="BA2" s="11"/>
-      <c r="BI2" s="10" t="s">
+      <c r="BB2" s="11"/>
+      <c r="BJ2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="BJ2" s="10"/>
       <c r="BK2" s="10"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
       <c r="BN2" s="10"/>
-      <c r="CA2" s="10" t="s">
+      <c r="BO2" s="10"/>
+      <c r="CB2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="CB2" s="10"/>
       <c r="CC2" s="10"/>
       <c r="CD2" s="10"/>
       <c r="CE2" s="10"/>
       <c r="CF2" s="10"/>
       <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10"/>
     </row>
-    <row r="3" spans="2:85" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1139,59 +1203,65 @@
       <c r="AR3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AS3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CB3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="CF3" s="1" t="s">
+      <c r="CG3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="CI3" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="4" spans="2:85" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1237,27 +1307,27 @@
       <c r="AR4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AX4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>3</v>
+      <c r="AS4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="AZ4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BK4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="BL4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1267,29 +1337,35 @@
       <c r="BN4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CA4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CB4" s="4" t="s">
-        <v>72</v>
+      <c r="BO4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="CC4" s="4" t="s">
         <v>72</v>
       </c>
       <c r="CD4" s="4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="CE4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CF4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="CG4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CH4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="2:85" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:92" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1327,7 +1403,7 @@
         <v>42</v>
       </c>
       <c r="AP5" s="7" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AQ5" s="6" t="s">
         <v>0</v>
@@ -1335,64 +1411,70 @@
       <c r="AR5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AX5" s="7" t="s">
+      <c r="AS5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AY5" s="6" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AZ5" s="7" t="s">
+      <c r="BA5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="BA5" s="6" t="s">
+      <c r="BB5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BB5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="7" t="s">
+      <c r="BC5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BJ5" s="6" t="s">
+      <c r="BK5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BK5" s="6" t="s">
+      <c r="BL5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="BL5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="BM5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="BN5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BO5" s="8"/>
-      <c r="BU5" s="8"/>
-      <c r="BZ5" s="8"/>
-      <c r="CA5" s="7" t="s">
+      <c r="BP5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CB5" s="6" t="s">
+      <c r="CC5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="CC5" s="6" t="s">
+      <c r="CD5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="CD5" s="6" t="s">
+      <c r="CE5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CE5" s="6" t="s">
+      <c r="CF5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="CF5" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="CG5" s="7" t="s">
-        <v>50</v>
+        <v>86</v>
+      </c>
+      <c r="CH5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI5" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:85" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I7" s="10" t="s">
         <v>52</v>
       </c>
@@ -1424,33 +1506,39 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AT7" s="10" t="s">
+      <c r="AU7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AU7" s="10"/>
       <c r="AV7" s="10"/>
-      <c r="BC7" s="11" t="s">
+      <c r="AW7" s="10"/>
+      <c r="BD7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
       <c r="BG7" s="11"/>
-      <c r="BP7" s="10" t="s">
+      <c r="BH7" s="11"/>
+      <c r="BQ7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BQ7" s="10"/>
       <c r="BR7" s="10"/>
       <c r="BS7" s="10"/>
       <c r="BT7" s="10"/>
-      <c r="BV7" s="11" t="s">
+      <c r="BU7" s="10"/>
+      <c r="BW7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BW7" s="11"/>
       <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
+      <c r="BZ7" s="11"/>
+      <c r="CK7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CL7" s="10"/>
+      <c r="CM7" s="10"/>
+      <c r="CN7" s="10"/>
     </row>
-    <row r="8" spans="2:85" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1514,59 +1602,71 @@
       <c r="AK8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AU8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BD8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BE8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BE8" s="2" t="s">
+      <c r="BF8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BF8" s="2" t="s">
+      <c r="BG8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BG8" s="2" t="s">
+      <c r="BH8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BP8" s="1" t="s">
+      <c r="BQ8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BQ8" s="2" t="s">
+      <c r="BR8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BR8" s="2" t="s">
+      <c r="BS8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BS8" s="2" t="s">
+      <c r="BT8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BT8" s="9" t="s">
+      <c r="BU8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BV8" s="1" t="s">
+      <c r="BW8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BW8" s="2" t="s">
+      <c r="BX8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BX8" s="2" t="s">
+      <c r="BY8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BY8" s="2" t="s">
+      <c r="BZ8" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="CK8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CL8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CM8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="CN8" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="9" spans="2:85" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1630,59 +1730,71 @@
       <c r="AK9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AT9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AU9" s="4" t="s">
+      <c r="AU9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AV9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD9" s="4" t="s">
+      <c r="AW9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BE9" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="BF9" s="4" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="BG9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BP9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BQ9" s="4" t="s">
+      <c r="BH9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BR9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="BS9" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BT9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BV9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BW9" s="4" t="s">
+      <c r="BU9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BX9" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="BY9" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="BZ9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="CM9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN9" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="2:85" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:92" x14ac:dyDescent="0.3">
       <c r="I10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1746,75 +1858,88 @@
       <c r="AK10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AT10" s="7" t="s">
+      <c r="AU10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AV10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AV10" s="6" t="s">
+      <c r="AW10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BC10" s="7" t="s">
+      <c r="BD10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BD10" s="6" t="s">
+      <c r="BE10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE10" s="6" t="s">
+      <c r="BF10" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="BF10" s="6" t="s">
-        <v>0</v>
       </c>
       <c r="BG10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BP10" s="7" t="s">
+      <c r="BH10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="BQ10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="BR10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="BS10" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BT10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BV10" s="7" t="s">
+      <c r="BU10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BW10" s="6" t="s">
+      <c r="BX10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BX10" s="6" t="s">
+      <c r="BY10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BY10" s="6" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CL10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN10" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="CA2:CG2"/>
-    <mergeCell ref="BP7:BT7"/>
+  <mergeCells count="16">
+    <mergeCell ref="CK7:CN7"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BD7:BH7"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="BQ7:BU7"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S7:V7"/>
     <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="BV7:BY7"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="BI2:BN2"/>
-    <mergeCell ref="BC7:BG7"/>
-    <mergeCell ref="AX2:BA2"/>
-    <mergeCell ref="AM2:AR2"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AU7:AW7"/>
+    <mergeCell ref="BW7:BZ7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Alohandes/data/Modelos/Esquema BD.xlsx
+++ b/Alohandes/data/Modelos/Esquema BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE\HotelManagement\Alohandes\data\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC15C201-A4DC-45D7-848B-FA87012C24EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40E1D5A-2DC7-43ED-A61F-2D0793A9CA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EEF67A9-6324-49A2-AA74-E29D07B2AB68}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Relacional" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -450,6 +449,77 @@
   </si>
   <si>
     <r>
+      <t>FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPERADOR.ID, NN</t>
+    </r>
+  </si>
+  <si>
+    <t>MENAJE</t>
+  </si>
+  <si>
+    <t>HABILITADA</t>
+  </si>
+  <si>
+    <t>FECHA_REALIZACION</t>
+  </si>
+  <si>
+    <t>COLECTIVA</t>
+  </si>
+  <si>
+    <t>RESERVA_COLECTIVA</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>OFERTA.ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NN, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLIENTE.ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>RESERVA_COLECTIVA.ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>NN, CK</t>
     </r>
     <r>
@@ -459,78 +529,7 @@
         <rFont val="Tw Cen MT"/>
         <family val="2"/>
       </rPr>
-      <t>(HOTELERIA, PERSONA_NATURAL, )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>OPERADOR.ID, NN</t>
-    </r>
-  </si>
-  <si>
-    <t>MENAJE</t>
-  </si>
-  <si>
-    <t>HABILITADA</t>
-  </si>
-  <si>
-    <t>FECHA_REALIZACION</t>
-  </si>
-  <si>
-    <t>COLECTIVA</t>
-  </si>
-  <si>
-    <t>RESERVA_COLECTIVA</t>
-  </si>
-  <si>
-    <r>
-      <t>NN, FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>OFERTA.ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NN, FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>CLIENTE.ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>RESERVA_COLECTIVA.ID</t>
+      <t>(HOTELERIA, PERSONA_NATURAL, VIVIENDA_UNIVERSITARIA)</t>
     </r>
   </si>
 </sst>
@@ -1028,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE441C97-7F2D-4289-AB1E-C697E71C467D}">
   <dimension ref="B2:CN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="CK7" sqref="CK7:CN10"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AN15" sqref="AN15:AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1038,12 +1037,12 @@
     <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="33.6640625" customWidth="1"/>
@@ -1055,7 +1054,7 @@
     <col min="25" max="25" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
@@ -1118,6 +1117,13 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
       <c r="O2" s="10" t="s">
         <v>56</v>
       </c>
@@ -1176,6 +1182,21 @@
       <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="O3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1204,7 +1225,7 @@
         <v>73</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>5</v>
@@ -1258,7 +1279,7 @@
         <v>49</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1279,6 +1300,21 @@
       </c>
       <c r="G4" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>6</v>
@@ -1383,6 +1419,21 @@
       </c>
       <c r="G5" s="6" t="s">
         <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>57</v>
@@ -1465,23 +1516,16 @@
         <v>42</v>
       </c>
       <c r="CG5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CH5" s="7" t="s">
+      <c r="CI5" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="CI5" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
       <c r="S7" s="10" t="s">
         <v>61</v>
       </c>
@@ -1532,28 +1576,13 @@
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
       <c r="CK7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
     </row>
     <row r="8" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="S8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1668,7 @@
         <v>19</v>
       </c>
       <c r="BU8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>5</v>
@@ -1657,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="CL8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="CM8" s="2" t="s">
         <v>67</v>
@@ -1667,21 +1696,6 @@
       </c>
     </row>
     <row r="9" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1795,21 +1809,6 @@
       </c>
     </row>
     <row r="10" spans="2:92" x14ac:dyDescent="0.3">
-      <c r="I10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="S10" s="5" t="s">
         <v>57</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>2</v>
@@ -1927,7 +1926,7 @@
     <mergeCell ref="CK7:CN7"/>
     <mergeCell ref="CB2:CI2"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="BJ2:BO2"/>
     <mergeCell ref="BD7:BH7"/>
     <mergeCell ref="AY2:BB2"/>

--- a/Alohandes/data/Modelos/Esquema BD.xlsx
+++ b/Alohandes/data/Modelos/Esquema BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE\HotelManagement\Alohandes\data\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40E1D5A-2DC7-43ED-A61F-2D0793A9CA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079B6282-4A83-4154-AC93-11D974874606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EEF67A9-6324-49A2-AA74-E29D07B2AB68}"/>
   </bookViews>
@@ -217,6 +217,75 @@
   </si>
   <si>
     <r>
+      <t>PK, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>OFERTA.ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PK, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>SERVICIO.ID</t>
+    </r>
+  </si>
+  <si>
+    <t>RESERVA</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>DURACION</t>
+  </si>
+  <si>
+    <t>PERIODO_ARRENDAMIENTO</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <r>
+      <t>PK, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLIENTE.ID</t>
+    </r>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>OPERADOR</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>TIPO_CLIENTE</t>
+  </si>
+  <si>
+    <r>
       <t>NN, CK</t>
     </r>
     <r>
@@ -226,8 +295,11 @@
         <rFont val="Tw Cen MT"/>
         <family val="2"/>
       </rPr>
-      <t>(DIAS, MESES, SEMESTRES)</t>
-    </r>
+      <t>(PROFESOR, EMPLEADO, EGRESADO, ESTUDIANTE, PADRE, NO_RELACIONADO, VECINO)</t>
+    </r>
+  </si>
+  <si>
+    <t>PERSONA_NATURAL</t>
   </si>
   <si>
     <r>
@@ -240,41 +312,173 @@
         <rFont val="Tw Cen MT"/>
         <family val="2"/>
       </rPr>
+      <t>OPERADOR.ID</t>
+    </r>
+  </si>
+  <si>
+    <t>TIPO_PERSONA</t>
+  </si>
+  <si>
+    <t>INCLUYE</t>
+  </si>
+  <si>
+    <t>TIPO_HOTELERIA</t>
+  </si>
+  <si>
+    <t>HOTELERIA</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>(HOSTAL, HOTEL)</t>
+    </r>
+  </si>
+  <si>
+    <t>HORA_APERTURA</t>
+  </si>
+  <si>
+    <t>HORA_CIERRE</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIVIENDA.ID</t>
+    </r>
+  </si>
+  <si>
+    <t>GANANCIAS</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1-12)</t>
+    </r>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>FECHAINICIO</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>FECHAFIN</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>(FECHAINICIO &lt; FECHAFIN)</t>
+    </r>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>(INICIO &lt; FIN)</t>
+    </r>
+  </si>
+  <si>
+    <t>TIPO_OPERADOR</t>
+  </si>
+  <si>
+    <t>VARCAHR2</t>
+  </si>
+  <si>
+    <r>
+      <t>FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>OPERADOR.ID, NN</t>
+    </r>
+  </si>
+  <si>
+    <t>MENAJE</t>
+  </si>
+  <si>
+    <t>HABILITADA</t>
+  </si>
+  <si>
+    <t>FECHA_REALIZACION</t>
+  </si>
+  <si>
+    <t>COLECTIVA</t>
+  </si>
+  <si>
+    <t>RESERVA_COLECTIVA</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
       <t>OFERTA.ID</t>
     </r>
   </si>
   <si>
     <r>
-      <t>PK, FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>SERVICIO.ID</t>
-    </r>
-  </si>
-  <si>
-    <t>RESERVA</t>
-  </si>
-  <si>
-    <t>INICIO</t>
-  </si>
-  <si>
-    <t>DURACION</t>
-  </si>
-  <si>
-    <t>PERIODO_ARRENDAMIENTO</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <r>
-      <t>PK, FK.</t>
+      <t>NN, FK.</t>
     </r>
     <r>
       <rPr>
@@ -287,16 +491,18 @@
     </r>
   </si>
   <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>OPERADOR</t>
-  </si>
-  <si>
-    <t>DOCUMENTO</t>
-  </si>
-  <si>
-    <t>TIPO_CLIENTE</t>
+    <r>
+      <t>FK.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>RESERVA_COLECTIVA.ID</t>
+    </r>
   </si>
   <si>
     <r>
@@ -309,37 +515,8 @@
         <rFont val="Tw Cen MT"/>
         <family val="2"/>
       </rPr>
-      <t>(PROFESOR, EMPLEADO, EGRESADO, ESTUDIANTE, PADRE, NO_RELACIONADO, VECINO)</t>
-    </r>
-  </si>
-  <si>
-    <t>PERSONA_NATURAL</t>
-  </si>
-  <si>
-    <r>
-      <t>PK, FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>OPERADOR.ID</t>
-    </r>
-  </si>
-  <si>
-    <t>TIPO_PERSONA</t>
-  </si>
-  <si>
-    <t>INCLUYE</t>
-  </si>
-  <si>
-    <t>TIPO_HOTELERIA</t>
-  </si>
-  <si>
-    <t>HOTELERIA</t>
+      <t>(HOTELERIA, PERSONA_NATURAL, VIVIENDA_UNIVERSITARIA)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -352,184 +529,7 @@
         <rFont val="Tw Cen MT"/>
         <family val="2"/>
       </rPr>
-      <t>(HOSTAL, HOTEL)</t>
-    </r>
-  </si>
-  <si>
-    <t>HORA_APERTURA</t>
-  </si>
-  <si>
-    <t>HORA_CIERRE</t>
-  </si>
-  <si>
-    <r>
-      <t>NN, FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>VIVIENDA.ID</t>
-    </r>
-  </si>
-  <si>
-    <t>GANANCIAS</t>
-  </si>
-  <si>
-    <t>CANTIDAD</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
-    <r>
-      <t>NN, CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1-12)</t>
-    </r>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>FECHAINICIO</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>FECHAFIN</t>
-  </si>
-  <si>
-    <r>
-      <t>NN, CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>(FECHAINICIO &lt; FECHAFIN)</t>
-    </r>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <r>
-      <t>NN, CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>(INICIO &lt; FIN)</t>
-    </r>
-  </si>
-  <si>
-    <t>TIPO_OPERADOR</t>
-  </si>
-  <si>
-    <t>VARCAHR2</t>
-  </si>
-  <si>
-    <r>
-      <t>FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>OPERADOR.ID, NN</t>
-    </r>
-  </si>
-  <si>
-    <t>MENAJE</t>
-  </si>
-  <si>
-    <t>HABILITADA</t>
-  </si>
-  <si>
-    <t>FECHA_REALIZACION</t>
-  </si>
-  <si>
-    <t>COLECTIVA</t>
-  </si>
-  <si>
-    <t>RESERVA_COLECTIVA</t>
-  </si>
-  <si>
-    <r>
-      <t>NN, FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>OFERTA.ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NN, FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>CLIENTE.ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>FK.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>RESERVA_COLECTIVA.ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>NN, CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Tw Cen MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>(HOTELERIA, PERSONA_NATURAL, VIVIENDA_UNIVERSITARIA)</t>
+      <t>(DIAS, SEMANAS, MESES, SEMESTRES)</t>
     </r>
   </si>
 </sst>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE441C97-7F2D-4289-AB1E-C697E71C467D}">
   <dimension ref="B2:CN10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AN15" sqref="AN15:AN16"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="CF10" sqref="CF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,7 +1062,7 @@
     <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.77734375" customWidth="1"/>
-    <col min="41" max="41" width="14" customWidth="1"/>
+    <col min="41" max="41" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="13.88671875" customWidth="1"/>
     <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -1110,7 +1110,7 @@
   <sheetData>
     <row r="2" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1118,14 +1118,14 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
@@ -1153,7 +1153,7 @@
       <c r="BN2" s="10"/>
       <c r="BO2" s="10"/>
       <c r="CB2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CC2" s="10"/>
       <c r="CD2" s="10"/>
@@ -1171,16 +1171,16 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>5</v>
@@ -1189,22 +1189,22 @@
         <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>5</v>
@@ -1219,13 +1219,13 @@
         <v>11</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>5</v>
@@ -1261,25 +1261,25 @@
         <v>5</v>
       </c>
       <c r="CC3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="CD3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CD3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="CF3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="CG3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1314,7 +1314,7 @@
         <v>36</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>6</v>
@@ -1338,10 +1338,10 @@
         <v>6</v>
       </c>
       <c r="AQ4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AR4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AS4" s="4" t="s">
         <v>6</v>
@@ -1380,10 +1380,10 @@
         <v>6</v>
       </c>
       <c r="CC4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CD4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CE4" s="4" t="s">
         <v>6</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>2</v>
@@ -1433,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AM5" s="5" t="s">
         <v>2</v>
@@ -1451,16 +1451,16 @@
         <v>10</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="AP5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AQ5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AS5" s="6" t="s">
         <v>17</v>
@@ -1507,33 +1507,33 @@
         <v>0</v>
       </c>
       <c r="CD5" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CE5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="CF5" s="6" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="CG5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CH5" s="7" t="s">
+      <c r="CI5" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="CI5" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="X7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
@@ -1551,7 +1551,7 @@
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
       <c r="AU7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
@@ -1576,7 +1576,7 @@
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
       <c r="CK7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
@@ -1587,28 +1587,28 @@
         <v>5</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Y8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z8" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="AA8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD8" s="1" t="s">
         <v>5</v>
@@ -1629,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AU8" s="1" t="s">
         <v>34</v>
@@ -1668,7 +1668,7 @@
         <v>19</v>
       </c>
       <c r="BU8" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>5</v>
@@ -1686,13 +1686,13 @@
         <v>5</v>
       </c>
       <c r="CL8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CM8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CN8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1703,10 +1703,10 @@
         <v>3</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>6</v>
@@ -1763,10 +1763,10 @@
         <v>6</v>
       </c>
       <c r="BG9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BH9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BQ9" s="3" t="s">
         <v>6</v>
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="CL9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CM9" s="4" t="s">
         <v>6</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="10" spans="2:92" x14ac:dyDescent="0.3">
       <c r="S10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="6" t="s">
         <v>0</v>
@@ -1828,13 +1828,13 @@
         <v>10</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>2</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AU10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="AV10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="AW10" s="6" t="s">
         <v>17</v>
@@ -1918,7 +1918,7 @@
         <v>10</v>
       </c>
       <c r="CN10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Alohandes/data/Modelos/Esquema BD.xlsx
+++ b/Alohandes/data/Modelos/Esquema BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE\HotelManagement\Alohandes\data\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079B6282-4A83-4154-AC93-11D974874606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098C09E-118F-4F79-B4FD-74E9CC4AF4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EEF67A9-6324-49A2-AA74-E29D07B2AB68}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="91">
   <si>
     <t>NN</t>
   </si>
@@ -530,6 +530,23 @@
         <family val="2"/>
       </rPr>
       <t>(DIAS, SEMANAS, MESES, SEMESTRES)</t>
+    </r>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <r>
+      <t>NN, CK(HABITACION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tw Cen MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -676,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -709,6 +726,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1025,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE441C97-7F2D-4289-AB1E-C697E71C467D}">
-  <dimension ref="B2:CN10"/>
+  <dimension ref="B2:CO10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="CF10" sqref="CF10"/>
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,55 +1080,56 @@
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.77734375" customWidth="1"/>
-    <col min="41" max="41" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.88671875" customWidth="1"/>
-    <col min="44" max="44" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.5546875" customWidth="1"/>
-    <col min="46" max="46" width="14.5546875" customWidth="1"/>
-    <col min="47" max="47" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" customWidth="1"/>
-    <col min="56" max="56" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.33203125" customWidth="1"/>
-    <col min="77" max="77" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="26" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="12.5546875" customWidth="1"/>
-    <col min="86" max="86" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.88671875" customWidth="1"/>
-    <col min="89" max="89" width="8" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="93" max="95" width="33.33203125" customWidth="1"/>
+    <col min="38" max="38" width="14.6640625" customWidth="1"/>
+    <col min="40" max="40" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.77734375" customWidth="1"/>
+    <col min="42" max="42" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.88671875" customWidth="1"/>
+    <col min="45" max="45" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.5546875" customWidth="1"/>
+    <col min="47" max="47" width="14.5546875" customWidth="1"/>
+    <col min="48" max="48" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.44140625" customWidth="1"/>
+    <col min="57" max="57" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="14" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.33203125" customWidth="1"/>
+    <col min="78" max="78" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="26" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.5546875" customWidth="1"/>
+    <col min="87" max="87" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="18.88671875" customWidth="1"/>
+    <col min="90" max="90" width="8" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="94" max="96" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
@@ -1129,41 +1150,41 @@
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="AM2" s="10" t="s">
+      <c r="AN2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="10"/>
       <c r="AO2" s="10"/>
       <c r="AP2" s="10"/>
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
       <c r="AS2" s="10"/>
-      <c r="AY2" s="11" t="s">
+      <c r="AT2" s="10"/>
+      <c r="AZ2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AZ2" s="11"/>
       <c r="BA2" s="11"/>
       <c r="BB2" s="11"/>
-      <c r="BJ2" s="10" t="s">
+      <c r="BC2" s="11"/>
+      <c r="BK2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="BK2" s="10"/>
       <c r="BL2" s="10"/>
       <c r="BM2" s="10"/>
       <c r="BN2" s="10"/>
       <c r="BO2" s="10"/>
-      <c r="CB2" s="10" t="s">
+      <c r="BP2" s="10"/>
+      <c r="CC2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="CC2" s="10"/>
       <c r="CD2" s="10"/>
       <c r="CE2" s="10"/>
       <c r="CF2" s="10"/>
       <c r="CG2" s="10"/>
       <c r="CH2" s="10"/>
       <c r="CI2" s="10"/>
+      <c r="CJ2" s="10"/>
     </row>
-    <row r="3" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1206,83 +1227,83 @@
       <c r="Q3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AO3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BA3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="BJ3" s="1" t="s">
+      <c r="BK3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BL3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BM3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BN3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="CB3" s="1" t="s">
+      <c r="CC3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="CD3" s="2" t="s">
+      <c r="CE3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CF3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CF3" s="2" t="s">
+      <c r="CG3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CH3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CI3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="CI3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:93" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1325,48 +1346,45 @@
       <c r="Q4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AN4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>71</v>
+      <c r="AQ4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="AR4" s="4" t="s">
         <v>71</v>
       </c>
       <c r="AS4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="BA4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BJ4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BL4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BL4" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="BM4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1376,32 +1394,35 @@
       <c r="BO4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CB4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CC4" s="4" t="s">
-        <v>71</v>
+      <c r="BP4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="CD4" s="4" t="s">
         <v>71</v>
       </c>
       <c r="CE4" s="4" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="CF4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="CG4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="CH4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="CI4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="CJ4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="2:92" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:93" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1444,88 +1465,88 @@
       <c r="Q5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="6" t="s">
+      <c r="AO5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AO5" s="6" t="s">
+      <c r="AP5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AP5" s="7" t="s">
+      <c r="AQ5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AQ5" s="6" t="s">
+      <c r="AR5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AR5" s="6" t="s">
+      <c r="AS5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AS5" s="6" t="s">
+      <c r="AT5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AY5" s="7" t="s">
+      <c r="AZ5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AZ5" s="6" t="s">
+      <c r="BA5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="BA5" s="7" t="s">
+      <c r="BB5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="BB5" s="6" t="s">
+      <c r="BC5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BC5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="7" t="s">
+      <c r="BD5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BK5" s="6" t="s">
+      <c r="BL5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BL5" s="6" t="s">
+      <c r="BM5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="BM5" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="BN5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="BO5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BP5" s="8"/>
-      <c r="BV5" s="8"/>
-      <c r="CA5" s="8"/>
-      <c r="CB5" s="7" t="s">
+      <c r="BQ5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="CB5" s="8"/>
+      <c r="CC5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CC5" s="6" t="s">
+      <c r="CD5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="CD5" s="6" t="s">
+      <c r="CE5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="CE5" s="6" t="s">
+      <c r="CF5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CF5" s="6" t="s">
+      <c r="CG5" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="CG5" s="7" t="s">
+      <c r="CH5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CH5" s="7" t="s">
+      <c r="CI5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CI5" s="7" t="s">
+      <c r="CJ5" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S7" s="10" t="s">
         <v>60</v>
       </c>
@@ -1550,39 +1571,40 @@
       <c r="AI7" s="10"/>
       <c r="AJ7" s="10"/>
       <c r="AK7" s="10"/>
-      <c r="AU7" s="10" t="s">
+      <c r="AL7" s="10"/>
+      <c r="AV7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
-      <c r="BD7" s="11" t="s">
+      <c r="AX7" s="10"/>
+      <c r="BE7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
       <c r="BG7" s="11"/>
       <c r="BH7" s="11"/>
-      <c r="BQ7" s="10" t="s">
+      <c r="BI7" s="11"/>
+      <c r="BR7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BR7" s="10"/>
       <c r="BS7" s="10"/>
       <c r="BT7" s="10"/>
       <c r="BU7" s="10"/>
-      <c r="BW7" s="11" t="s">
+      <c r="BV7" s="10"/>
+      <c r="BX7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BX7" s="11"/>
       <c r="BY7" s="11"/>
       <c r="BZ7" s="11"/>
-      <c r="CK7" s="10" t="s">
+      <c r="CA7" s="11"/>
+      <c r="CL7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
     </row>
-    <row r="8" spans="2:92" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1631,71 +1653,74 @@
       <c r="AK8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AL8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AX8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="BD8" s="1" t="s">
+      <c r="BE8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BE8" s="2" t="s">
+      <c r="BF8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BF8" s="2" t="s">
+      <c r="BG8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BG8" s="2" t="s">
+      <c r="BH8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BH8" s="2" t="s">
+      <c r="BI8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BQ8" s="1" t="s">
+      <c r="BR8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BR8" s="2" t="s">
+      <c r="BS8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BS8" s="2" t="s">
+      <c r="BT8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="BT8" s="2" t="s">
+      <c r="BU8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="BU8" s="9" t="s">
+      <c r="BV8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BW8" s="1" t="s">
+      <c r="BX8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="BX8" s="2" t="s">
+      <c r="BY8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="BY8" s="2" t="s">
+      <c r="BZ8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="BZ8" s="2" t="s">
+      <c r="CA8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="CK8" s="1" t="s">
+      <c r="CL8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="CL8" s="2" t="s">
+      <c r="CM8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CM8" s="2" t="s">
+      <c r="CN8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="CN8" s="1" t="s">
+      <c r="CO8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="2:92" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:93" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="S9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1744,71 +1769,74 @@
       <c r="AK9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AU9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AV9" s="4" t="s">
+      <c r="AL9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AW9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BD9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE9" s="4" t="s">
+      <c r="AX9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BF9" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="BG9" s="4" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="BH9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BQ9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR9" s="4" t="s">
+      <c r="BI9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="BS9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="BT9" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BU9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BW9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX9" s="4" t="s">
+      <c r="BV9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="BY9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="BY9" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="BZ9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="CK9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL9" s="4" t="s">
+      <c r="CA9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="CM9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="CN9" s="3" t="s">
+      <c r="CN9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:92" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:93" ht="39" x14ac:dyDescent="0.3">
       <c r="S10" s="5" t="s">
         <v>56</v>
       </c>
@@ -1857,88 +1885,91 @@
       <c r="AK10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AU10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AV10" s="7" t="s">
+      <c r="AW10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AW10" s="6" t="s">
+      <c r="AX10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BD10" s="7" t="s">
+      <c r="BE10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="BE10" s="6" t="s">
+      <c r="BF10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BF10" s="6" t="s">
+      <c r="BG10" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="BG10" s="6" t="s">
-        <v>0</v>
       </c>
       <c r="BH10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BQ10" s="7" t="s">
+      <c r="BI10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="BR10" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="BS10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="BT10" s="6" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BU10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BW10" s="7" t="s">
+      <c r="BV10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BX10" s="6" t="s">
+      <c r="BY10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BY10" s="6" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BZ10" s="6" t="s">
+      <c r="CA10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="7" t="s">
+      <c r="CL10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CM10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CO10" s="7" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="CK7:CN7"/>
-    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="CL7:CO7"/>
+    <mergeCell ref="CC2:CJ2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="I2:M2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BD7:BH7"/>
-    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BK2:BP2"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="AZ2:BC2"/>
     <mergeCell ref="X7:AB7"/>
     <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AM2:AS2"/>
-    <mergeCell ref="BQ7:BU7"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="BR7:BV7"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="S7:V7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AU7:AW7"/>
-    <mergeCell ref="BW7:BZ7"/>
+    <mergeCell ref="AV7:AX7"/>
+    <mergeCell ref="BX7:CA7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Alohandes/data/Modelos/Esquema BD.xlsx
+++ b/Alohandes/data/Modelos/Esquema BD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE\HotelManagement\Alohandes\data\Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098C09E-118F-4F79-B4FD-74E9CC4AF4A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DFD18-77C3-4A40-B7F4-64AA17E8FC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8EEF67A9-6324-49A2-AA74-E29D07B2AB68}"/>
   </bookViews>
@@ -722,13 +722,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE441C97-7F2D-4289-AB1E-C697E71C467D}">
   <dimension ref="B2:CO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7:AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,11 +1076,11 @@
     <col min="27" max="27" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.6640625" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="13.77734375" customWidth="1"/>
     <col min="42" max="42" width="18.109375" bestFit="1" customWidth="1"/>
@@ -1130,59 +1130,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="O2" s="10" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="AN2" s="10" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="AN2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AZ2" s="11" t="s">
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AZ2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BK2" s="10" t="s">
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BK2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
-      <c r="CC2" s="10" t="s">
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="CC2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="CD2" s="10"/>
-      <c r="CE2" s="10"/>
-      <c r="CF2" s="10"/>
-      <c r="CG2" s="10"/>
-      <c r="CH2" s="10"/>
-      <c r="CI2" s="10"/>
-      <c r="CJ2" s="10"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
     </row>
     <row r="3" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1547,62 +1547,62 @@
       </c>
     </row>
     <row r="7" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="S7" s="10" t="s">
+      <c r="S7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="X7" s="10" t="s">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="X7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AD7" s="11" t="s">
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AD7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AH7" s="10" t="s">
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AH7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AV7" s="10" t="s">
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AV7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="BE7" s="11" t="s">
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="BE7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="BF7" s="11"/>
-      <c r="BG7" s="11"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="11"/>
-      <c r="BR7" s="10" t="s">
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BR7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="BS7" s="10"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="10"/>
-      <c r="BV7" s="10"/>
-      <c r="BX7" s="11" t="s">
+      <c r="BS7" s="11"/>
+      <c r="BT7" s="11"/>
+      <c r="BU7" s="11"/>
+      <c r="BV7" s="11"/>
+      <c r="BX7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="BY7" s="11"/>
-      <c r="BZ7" s="11"/>
-      <c r="CA7" s="11"/>
-      <c r="CL7" s="10" t="s">
+      <c r="BY7" s="12"/>
+      <c r="BZ7" s="12"/>
+      <c r="CA7" s="12"/>
+      <c r="CL7" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="CM7" s="10"/>
-      <c r="CN7" s="10"/>
-      <c r="CO7" s="10"/>
+      <c r="CM7" s="11"/>
+      <c r="CN7" s="11"/>
+      <c r="CO7" s="11"/>
     </row>
     <row r="8" spans="2:93" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S8" s="1" t="s">
@@ -1769,7 +1769,7 @@
       <c r="AK9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AL9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="AV9" s="3" t="s">
@@ -1836,7 +1836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:93" ht="39" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:93" x14ac:dyDescent="0.3">
       <c r="S10" s="5" t="s">
         <v>56</v>
       </c>
